--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B74115-087D-4054-BC99-3A0C64D04F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3443B5B-2511-4C08-B357-15B4D3A5CEA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>h,t transfer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,7 +77,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>由于计算资源有限，没有调参，只跑了一次</t>
+    <t>由于计算资源有限，没有调参，只跑了一次。暂且不看论文report的结果，只看我们按照他方法得到的结果，可以发现当rel投影到tao空间时，entity prediction结果较好，rel不投影时，relation prediction的结果较好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（注：粗体为best）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +92,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +109,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -133,16 +145,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -423,42 +440,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:J15"/>
+  <dimension ref="D1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="26.796875" customWidth="1"/>
+    <col min="9" max="9" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="4:10" x14ac:dyDescent="0.4">
       <c r="E4" t="s">
@@ -478,35 +496,35 @@
       <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>107</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>1069</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>38.4</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>16</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>110</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>1059</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>34.9</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>13.3</v>
       </c>
     </row>
@@ -514,7 +532,7 @@
       <c r="D7" t="s">
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>110</v>
       </c>
       <c r="F7">
@@ -528,80 +546,79 @@
       </c>
     </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="6">
         <v>1.23</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1">
+      <c r="F11" s="6"/>
+      <c r="G11" s="2">
         <v>81.2</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>1.31</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
         <v>82.1</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>1.26</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
         <v>83.1</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D16" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
+  <mergeCells count="14">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
@@ -611,6 +628,11 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3443B5B-2511-4C08-B357-15B4D3A5CEA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95243FA4-4E12-45EF-B7CE-A744FF5A35A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>h,t transfer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,10 @@
   </si>
   <si>
     <t>（注：粗体为best）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_limited</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,18 +152,18 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -453,30 +457,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="4:10" x14ac:dyDescent="0.4">
       <c r="E4" t="s">
@@ -496,20 +500,20 @@
       <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>107</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>1069</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>38.4</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="3">
         <v>16</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
@@ -519,9 +523,9 @@
         <v>110</v>
       </c>
       <c r="F6" s="1">
-        <v>1059</v>
-      </c>
-      <c r="G6" s="1">
+        <v>1069</v>
+      </c>
+      <c r="G6" s="2">
         <v>34.9</v>
       </c>
       <c r="H6" s="1">
@@ -545,80 +549,112 @@
         <v>13.1</v>
       </c>
     </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>111</v>
+      </c>
+      <c r="F8">
+        <v>1083</v>
+      </c>
+      <c r="G8" s="1">
+        <v>35.4</v>
+      </c>
+      <c r="H8">
+        <v>13.1</v>
+      </c>
+    </row>
     <row r="9" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="7">
         <v>1.23</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2">
+      <c r="F11" s="7"/>
+      <c r="G11" s="5">
         <v>81.2</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <v>1.31</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
         <v>82.1</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="6">
         <v>1.26</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3">
+      <c r="F13" s="6"/>
+      <c r="G13" s="7">
         <v>83.1</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1.26</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
+        <v>83.5</v>
+      </c>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95243FA4-4E12-45EF-B7CE-A744FF5A35A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF2BCFB-277E-4EA4-844A-54BB351BD8AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>h,t transfer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>time_limited</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIKI 12K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,10 +159,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -444,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:J16"/>
+  <dimension ref="D1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -456,33 +460,53 @@
     <col min="9" max="9" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E1" s="5" t="s">
+    <row r="1" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="E1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E2" s="5" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="L1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E3" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="L2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+    </row>
+    <row r="3" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="H3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="4:15" x14ac:dyDescent="0.4">
       <c r="E4" t="s">
         <v>3</v>
       </c>
@@ -495,8 +519,20 @@
       <c r="H4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
         <v>1</v>
       </c>
@@ -512,10 +548,25 @@
       <c r="H5" s="3">
         <v>16</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>179</v>
+      </c>
+      <c r="M5">
+        <v>237</v>
+      </c>
+      <c r="N5">
+        <v>41.6</v>
+      </c>
+      <c r="O5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
         <v>10</v>
       </c>
@@ -531,8 +582,23 @@
       <c r="H6" s="1">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="K6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>220</v>
+      </c>
+      <c r="M6" s="1">
+        <v>231</v>
+      </c>
+      <c r="N6" s="1">
+        <v>42.4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
         <v>0</v>
       </c>
@@ -548,8 +614,11 @@
       <c r="H7">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>13</v>
       </c>
@@ -565,26 +634,55 @@
       <c r="H8">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E9" s="5" t="s">
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="1">
+        <v>218</v>
+      </c>
+      <c r="M8">
+        <v>237</v>
+      </c>
+      <c r="N8">
+        <v>41.1</v>
+      </c>
+      <c r="O8">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.4">
-      <c r="E10" s="5" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="E10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="H10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>1</v>
       </c>
@@ -592,51 +690,89 @@
         <v>1.23</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <v>81.2</v>
       </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="H11" s="6"/>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="6">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6">
+        <v>92.6</v>
+      </c>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>1.31</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
         <v>82.1</v>
       </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="H12" s="6"/>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1.18</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6">
+        <v>91.1</v>
+      </c>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>1.26</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="5"/>
       <c r="G13" s="7">
         <v>83.1</v>
       </c>
       <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="K13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>1.26</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
         <v>83.5</v>
       </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.4">
+      <c r="H14" s="5"/>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1.22</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="5">
+        <v>91.2</v>
+      </c>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
@@ -646,13 +782,32 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="30">
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="E1:H1"/>
@@ -664,11 +819,6 @@
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
